--- a/docs/StructureDefinition-BRContatoAssistencial-1.0.xlsx
+++ b/docs/StructureDefinition-BRContatoAssistencial-1.0.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/docs/StructureDefinition-BRContatoAssistencial-1.0.xlsx
+++ b/docs/StructureDefinition-BRContatoAssistencial-1.0.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-BRContatoAssistencial-1.0.xlsx
+++ b/docs/StructureDefinition-BRContatoAssistencial-1.0.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-BRContatoAssistencial-1.0.xlsx
+++ b/docs/StructureDefinition-BRContatoAssistencial-1.0.xlsx
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/StructureDefinition-BRContatoAssistencial-1.0.xlsx
+++ b/docs/StructureDefinition-BRContatoAssistencial-1.0.xlsx
@@ -3025,15 +3025,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="71.89453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="61.56640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="83.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="22.8203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.77734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.40625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="80.63671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="21.828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3044,26 +3044,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.5546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.0078125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.51953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="23.66015625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="43.24609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="96.00390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="176.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8888,7 +8888,7 @@
         <v>332</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-BRContatoAssistencial-1.0.xlsx
+++ b/docs/StructureDefinition-BRContatoAssistencial-1.0.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -3025,15 +3025,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="59.40625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="80.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="21.828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="56.6484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="76.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="20.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3044,26 +3044,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.51953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.66015625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.24609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.54296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.33984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.5625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="41.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="96.00390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="176.8203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.13671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="91.55078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="30.9375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="168.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8664,7 +8664,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
